--- a/data/Events.xlsx
+++ b/data/Events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swint\Documents\ADS\Fall2020-Project2-group7\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengyao/Documents/GitHub/Fall2020-Project2-group7/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4FD868-6959-4D3E-B811-250295779C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077CC94C-0ABB-7B48-99B6-D432737A6342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="11130" windowHeight="10200" xr2:uid="{B2F45DC7-A6B4-463D-96EA-200D194036A0}"/>
+    <workbookView xWindow="1260" yWindow="520" windowWidth="13860" windowHeight="12800" xr2:uid="{B2F45DC7-A6B4-463D-96EA-200D194036A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +112,15 @@
   </si>
   <si>
     <t>Cases of children increase for COVID and MIS - C symptoms</t>
+  </si>
+  <si>
+    <t>the first phase of its reopening plan</t>
+  </si>
+  <si>
+    <t>require travelers to self-quarantine for 14 days</t>
+  </si>
+  <si>
+    <t>first dog test positive for Covid-19 died</t>
   </si>
 </sst>
 </file>
@@ -494,18 +500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE9C9F8-4582-4596-AD15-43F29CF84AB0}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43893</v>
       </c>
@@ -521,7 +527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43893</v>
       </c>
@@ -529,7 +535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43899</v>
       </c>
@@ -537,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43915</v>
       </c>
@@ -545,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43917</v>
       </c>
@@ -553,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43918</v>
       </c>
@@ -561,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43919</v>
       </c>
@@ -569,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43920</v>
       </c>
@@ -577,7 +583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43921</v>
       </c>
@@ -585,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43925</v>
       </c>
@@ -593,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43926</v>
       </c>
@@ -601,7 +607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43943</v>
       </c>
@@ -609,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43961</v>
       </c>
@@ -617,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43970</v>
       </c>
@@ -625,12 +631,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43977</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/Events.xlsx
+++ b/data/Events.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mengyao/Documents/GitHub/Fall2020-Project2-group7/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077CC94C-0ABB-7B48-99B6-D432737A6342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="520" windowWidth="13860" windowHeight="12800" xr2:uid="{B2F45DC7-A6B4-463D-96EA-200D194036A0}"/>
+    <workbookView windowWidth="24960" windowHeight="12970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +29,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Mayor Bill de Blasio announced that there were 16 confirmed cases of COVID-19 in New York City.</t>
     </r>
     <r>
@@ -53,8 +43,8 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>[16]</t>
@@ -68,6 +58,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The USNS </t>
     </r>
     <r>
@@ -75,8 +72,8 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Comfort</t>
@@ -85,8 +82,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> hospital ship arrived in New York Harbor, Field hospitals set up and, Refrigerator trucks for bodies</t>
@@ -122,53 +119,434 @@
   <si>
     <t>first dog test positive for Covid-19 died</t>
   </si>
+  <si>
+    <t xml:space="preserve"> de Blasio announced that COVID-19 checkpoints would be set up at major crossings and tunnels to help enforcement of a mandatory 14-day quarantine for travelers from areas of a high transmission rate per Cuomo's order in coordination with the New York's Sheriff department.Failure to comply with this order would result in fines ranging from $2,000 to US$10,000 with de Blasio adding "We’re not going to let our hard work slip away and will continue to do everything we can to keep New Yorkers safe and healthy.</t>
+  </si>
+  <si>
+    <t>Cuomo announced gyms and fitness centers would be able to reopen starting August 24 and no later than September 2. Gyms would be required to limit their capacity to 33%, mandate mask wearing at all times, as well as having proper ventilation systems.</t>
+  </si>
+  <si>
+    <t>1-Sept-20</t>
+  </si>
+  <si>
+    <t>some types of businesses have not been allowed to open regardless of the phase, including but not limited to concert venues, nightclubs, and arenas.</t>
+  </si>
+  <si>
+    <t>9-Sept-20</t>
+  </si>
+  <si>
+    <t>Cuomo announced New York City would be permitted to resume indoor dining services at 25 percent capacity on September 30.</t>
+  </si>
+  <si>
+    <t>17-Sept-20</t>
+  </si>
+  <si>
+    <t>Blasio announced the shift of the start of the school year again, opting for a phased approach, due to continued obstacles including teacher shortages. Pre-K and students with special needs would begin on September 21, with elementary student schools opening by September 29, and middle / high school students opened up on October 1.</t>
+  </si>
+  <si>
+    <t>25-Sept-20</t>
+  </si>
+  <si>
+    <t>de Blasio in an interview with WNYC announced the outdoor dining and open streets programs would be extended indefinitely. The Open Restaurants program was set to expire on October 31.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202122"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202122"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -176,28 +554,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -246,7 +915,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -279,26 +948,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -331,23 +983,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,29 +1124,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE9C9F8-4582-4596-AD15-43F29CF84AB0}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43893</v>
       </c>
@@ -527,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43893</v>
       </c>
@@ -535,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" ht="17.5" spans="1:2">
       <c r="A4" s="1">
         <v>43899</v>
       </c>
@@ -543,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43915</v>
       </c>
@@ -551,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43917</v>
       </c>
@@ -559,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43918</v>
       </c>
@@ -567,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43919</v>
       </c>
@@ -575,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43920</v>
       </c>
@@ -583,7 +1213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43921</v>
       </c>
@@ -591,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>43925</v>
       </c>
@@ -599,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>43926</v>
       </c>
@@ -607,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>43943</v>
       </c>
@@ -615,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43961</v>
       </c>
@@ -623,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>43970</v>
       </c>
@@ -631,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>43977</v>
       </c>
@@ -639,7 +1269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>43990</v>
       </c>
@@ -647,7 +1277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>44006</v>
       </c>
@@ -655,7 +1285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>44023</v>
       </c>
@@ -663,10 +1293,94 @@
         <v>17</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" ht="20" spans="1:1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" ht="21" spans="1:1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" ht="20" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="20" spans="1:1">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" ht="20" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="20" spans="1:1">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" ht="20" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" ht="20" spans="1:1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" ht="20" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" tooltip="Ventilator" display="https://en.wikipedia.org/wiki/Ventilator" xr:uid="{4545E2E9-40D1-42BD-B573-29365239AB21}"/>
+    <hyperlink ref="B11" r:id="rId1" display="Governor Cuomo announced that the Chinese  government had arranged for a donation of 1,000 ventilators, Trump sets up Urban Area Medical Task Forces and, NY Stae National Guard deployed" tooltip="Ventilator"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/Events.xlsx
+++ b/data/Events.xlsx
@@ -1,40 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swint\Documents\ADS\Fall2020-Project2-group7\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4FD868-6959-4D3E-B811-250295779C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="11130" windowHeight="10200" xr2:uid="{B2F45DC7-A6B4-463D-96EA-200D194036A0}"/>
+    <workbookView windowWidth="24960" windowHeight="12970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +29,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Mayor Bill de Blasio announced that there were 16 confirmed cases of COVID-19 in New York City.</t>
     </r>
     <r>
@@ -56,8 +43,8 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>[16]</t>
@@ -71,6 +58,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The USNS </t>
     </r>
     <r>
@@ -78,8 +72,8 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Comfort</t>
@@ -88,8 +82,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> hospital ship arrived in New York Harbor, Field hospitals set up and, Refrigerator trucks for bodies</t>
@@ -116,53 +110,443 @@
   <si>
     <t>Cases of children increase for COVID and MIS - C symptoms</t>
   </si>
+  <si>
+    <t>the first phase of its reopening plan</t>
+  </si>
+  <si>
+    <t>require travelers to self-quarantine for 14 days</t>
+  </si>
+  <si>
+    <t>first dog test positive for Covid-19 died</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de Blasio announced that COVID-19 checkpoints would be set up at major crossings and tunnels to help enforcement of a mandatory 14-day quarantine for travelers from areas of a high transmission rate per Cuomo's order in coordination with the New York's Sheriff department.Failure to comply with this order would result in fines ranging from $2,000 to US$10,000 with de Blasio adding "We’re not going to let our hard work slip away and will continue to do everything we can to keep New Yorkers safe and healthy.</t>
+  </si>
+  <si>
+    <t>Cuomo announced gyms and fitness centers would be able to reopen starting August 24 and no later than September 2. Gyms would be required to limit their capacity to 33%, mandate mask wearing at all times, as well as having proper ventilation systems.</t>
+  </si>
+  <si>
+    <t>1-Sept-20</t>
+  </si>
+  <si>
+    <t>some types of businesses have not been allowed to open regardless of the phase, including but not limited to concert venues, nightclubs, and arenas.</t>
+  </si>
+  <si>
+    <t>9-Sept-20</t>
+  </si>
+  <si>
+    <t>Cuomo announced New York City would be permitted to resume indoor dining services at 25 percent capacity on September 30.</t>
+  </si>
+  <si>
+    <t>17-Sept-20</t>
+  </si>
+  <si>
+    <t>Blasio announced the shift of the start of the school year again, opting for a phased approach, due to continued obstacles including teacher shortages. Pre-K and students with special needs would begin on September 21, with elementary student schools opening by September 29, and middle / high school students opened up on October 1.</t>
+  </si>
+  <si>
+    <t>25-Sept-20</t>
+  </si>
+  <si>
+    <t>de Blasio in an interview with WNYC announced the outdoor dining and open streets programs would be extended indefinitely. The Open Restaurants program was set to expire on October 31.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202122"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202122"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,28 +554,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -240,7 +915,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -273,26 +948,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -325,23 +983,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,29 +1124,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE9C9F8-4582-4596-AD15-43F29CF84AB0}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43893</v>
       </c>
@@ -521,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43893</v>
       </c>
@@ -529,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" ht="17.5" spans="1:2">
       <c r="A4" s="1">
         <v>43899</v>
       </c>
@@ -537,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43915</v>
       </c>
@@ -545,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43917</v>
       </c>
@@ -553,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43918</v>
       </c>
@@ -561,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43919</v>
       </c>
@@ -569,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43920</v>
       </c>
@@ -577,7 +1213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43921</v>
       </c>
@@ -585,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>43925</v>
       </c>
@@ -593,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>43926</v>
       </c>
@@ -601,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>43943</v>
       </c>
@@ -609,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43961</v>
       </c>
@@ -617,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>43970</v>
       </c>
@@ -625,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>43977</v>
       </c>
@@ -633,10 +1269,118 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" ht="20" spans="1:1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" ht="21" spans="1:1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" ht="20" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="20" spans="1:1">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" ht="20" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="20" spans="1:1">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" ht="20" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" ht="20" spans="1:1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" ht="20" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" tooltip="Ventilator" display="https://en.wikipedia.org/wiki/Ventilator" xr:uid="{4545E2E9-40D1-42BD-B573-29365239AB21}"/>
+    <hyperlink ref="B11" r:id="rId1" display="Governor Cuomo announced that the Chinese  government had arranged for a donation of 1,000 ventilators, Trump sets up Urban Area Medical Task Forces and, NY Stae National Guard deployed" tooltip="Ventilator"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>